--- a/manuscript/tables/conversion-units.xlsx
+++ b/manuscript/tables/conversion-units.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>$sec$, $min$, $hr$</t>
   </si>
   <si>
@@ -50,22 +47,16 @@
     <t>Compatible in:</t>
   </si>
   <si>
-    <t>`calc.rate()`</t>
-  </si>
-  <si>
-    <t>`scale.rate()`</t>
-  </si>
-  <si>
-    <t>$O_2$ (conc)</t>
-  </si>
-  <si>
-    <t>$O_2$ (pressure)</t>
-  </si>
-  <si>
-    <t>`calc.rate()`, `scale.rate()`</t>
-  </si>
-  <si>
-    <t>$mg L^{-1}$, $\mu g L^{-1}$, $\mu mol L^{-1}$, $ml L^{-1}$, $mg kg^{-1}$, $\mu kg^{-1}$ $mmol kg^{-1}$, $\mu mol kg^{-1}$, $ml kg^{-1}$, $\%$</t>
+    <t>`convert_rate()`</t>
+  </si>
+  <si>
+    <t>$O_2$</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>`convert_DO()`, convert_rate()</t>
   </si>
   <si>
     <t>$mg L^{-1}$, $\mu g L^{-1}$, $\mu mol L^{-1}$, $ml L^{-1}$, $mg kg^{-1}$, $\mu kg^{-1}$ $mmol kg^{-1}$, $\mu mol kg^{-1}$, $ml kg^{-1}$, $\%$, $hPa$, $kPa$, $mmHg$, $inHg$</t>
@@ -382,17 +373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -400,54 +391,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
